--- a/public/assets/pendukung-import.xlsx
+++ b/public/assets/pendukung-import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Voting-suara\import-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC051E-2E74-4A6B-B9E9-27E63E497E75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37932BE8-54D4-47BA-84F2-905081BED7A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{751C66F1-1C02-478C-B6BF-D107F3B1C4D0}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>NIK</t>
   </si>
   <si>
     <t>Nama</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>Alamat</t>
@@ -112,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,14 +121,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,26 +158,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,416 +483,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36E82A6-F914-44A9-9BDC-17F2CBE13D74}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1, 9999999999)</f>
-        <v>8126838643</v>
+        <v>991981130</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f ca="1">CONCATENATE("userimport",  RANDBETWEEN(1, 10000000000), "@gmail.com")</f>
-        <v>userimport8112234726@gmail.com</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>1234567</v>
       </c>
-      <c r="G2" t="str">
+      <c r="F2" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1, 2), "L", "P")</f>
         <v>P</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" ca="1" si="0">RANDBETWEEN(1, 9999999999)</f>
-        <v>8781504791</v>
+        <v>3071271300</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D11" ca="1" si="1">CONCATENATE("userimport",  RANDBETWEEN(1, 10000000000), "@gmail.com")</f>
-        <v>userimport3001577593@gmail.com</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
         <v>1234568</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" ca="1" si="2">CHOOSE(RANDBETWEEN(1, 2), "L", "P")</f>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F11" ca="1" si="1">CHOOSE(RANDBETWEEN(1, 2), "L", "P")</f>
         <v>L</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1358462204</v>
+        <v>443689356</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1234569</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport5462861321@gmail.com</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>1234569</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v>P</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1635688675</v>
+        <v>3696585213</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="str">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1234570</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport429164709@gmail.com</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>1234570</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v>L</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>642426877</v>
+        <v>7341167871</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="str">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1234571</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport135080123@gmail.com</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>1234571</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>L</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>8754530107</v>
+        <v>6246760005</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="str">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1234572</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport1113370622@gmail.com</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>1234572</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>L</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>7960793970</v>
+        <v>7808351191</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="str">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1234573</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport3263841255@gmail.com</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <v>1234573</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="2"/>
         <v>P</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>9650718722</v>
+        <v>3563774253</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="str">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1234574</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport3510985167@gmail.com</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>1234574</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>P</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2138676479</v>
+        <v>2324004878</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="str">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>1234575</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport4183562017@gmail.com</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>1234575</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>P</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1567176870</v>
+        <v>6355430761</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="str">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1234576</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>userimport1316875973@gmail.com</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <v>1234576</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
+        <v>L</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="newregis123@gmail.com" xr:uid="{DDD70095-CD66-46F9-A52A-B5D901AA416E}"/>
-    <hyperlink ref="D3:D11" r:id="rId2" display="newregis123@gmail.com" xr:uid="{DCF65243-5BE7-4F62-8075-CC0EABE3BBFF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>